--- a/独立游戏开发文档/csv独立游戏脚本.xlsx
+++ b/独立游戏开发文档/csv独立游戏脚本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="SceneType" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ProgressType" sheetId="7" r:id="rId5"/>
     <sheet name="GameProgress" sheetId="6" r:id="rId6"/>
     <sheet name="要再统一做系统进程脚本,可能还能用于记录" sheetId="5" r:id="rId7"/>
+    <sheet name="UserDefault" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>SceneNumber</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,13 +278,57 @@
   <si>
     <t>SceneType</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>意义</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录游戏进度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>分哥哥和弟弟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true表示哥哥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>false表示弟弟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,6 +346,13 @@
       <color indexed="63"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1377,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1952,4 +2004,65 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>